--- a/Data/Load.xlsx
+++ b/Data/Load.xlsx
@@ -4,15 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Load_all_2022" sheetId="1" r:id="rId1"/>
-    <sheet name="Load_bus_2022" sheetId="2" r:id="rId2"/>
-    <sheet name="Load_all_2040_low_growth" sheetId="5" r:id="rId3"/>
-    <sheet name="Load_bus_2040_low_growth" sheetId="6" r:id="rId4"/>
-    <sheet name="Load_all_2040_high_growth" sheetId="8" r:id="rId5"/>
-    <sheet name="Load_bus_2040_high_growth" sheetId="9" r:id="rId6"/>
+    <sheet name="Load_all_2023" sheetId="1" r:id="rId1"/>
+    <sheet name="Load_bus_2023" sheetId="2" r:id="rId2"/>
+    <sheet name="Load_all_2030_low_growth" sheetId="10" r:id="rId3"/>
+    <sheet name="Load_bus_2030_low_growth" sheetId="11" r:id="rId4"/>
+    <sheet name="Load_all_2030_high_growth" sheetId="12" r:id="rId5"/>
+    <sheet name="Load_bus_2030_high_growth" sheetId="13" r:id="rId6"/>
+    <sheet name="Load_all_2040_low_growth" sheetId="5" r:id="rId7"/>
+    <sheet name="Load_bus_2040_low_growth" sheetId="6" r:id="rId8"/>
+    <sheet name="Load_all_2040_high_growth" sheetId="8" r:id="rId9"/>
+    <sheet name="Load_bus_2040_high_growth" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="14">
   <si>
     <t>Season</t>
   </si>
@@ -395,7 +399,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,12 +704,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,8 +748,8 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <f>0.2*Load_all_2022!E2</f>
-        <v>3890</v>
+        <f>Load_bus_2023!E2*(1+2.5/100)^(2040-2023)</f>
+        <v>5919.0950359788294</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -765,8 +769,8 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <f>0.2*Load_all_2022!E3</f>
-        <v>3952</v>
+        <f>Load_bus_2023!E3*(1+2.5/100)^(2040-2023)</f>
+        <v>6013.4353681718085</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -786,8 +790,8 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <f>0.2*Load_all_2022!E4</f>
-        <v>5156.4000000000005</v>
+        <f>Load_bus_2023!E4*(1+2.5/100)^(2040-2023)</f>
+        <v>7846.0724019334803</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -807,8 +811,8 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <f>0.2*Load_all_2022!E5</f>
-        <v>4169.4000000000005</v>
+        <f>Load_bus_2023!E5*(1+2.5/100)^(2040-2023)</f>
+        <v>6344.2351781517054</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -828,8 +832,8 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <f>0.2*Load_all_2022!E6</f>
-        <v>3300.8</v>
+        <f>Load_bus_2023!E6*(1+2.5/100)^(2040-2023)</f>
+        <v>5022.557556493296</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -849,8 +853,8 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <f>0.2*Load_all_2022!E7</f>
-        <v>3167.8</v>
+        <f>Load_bus_2023!E7*(1+2.5/100)^(2040-2023)</f>
+        <v>4820.1823277567446</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -870,8 +874,8 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <f>0.2*Load_all_2022!E8</f>
-        <v>4077.6000000000004</v>
+        <f>Load_bus_2023!E8*(1+2.5/100)^(2040-2023)</f>
+        <v>6204.5506217756501</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -891,8 +895,8 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <f>0.2*Load_all_2022!E9</f>
-        <v>3722</v>
+        <f>Load_bus_2023!E9*(1+2.5/100)^(2040-2023)</f>
+        <v>5663.4631681010806</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -912,8 +916,8 @@
         <v>12</v>
       </c>
       <c r="E10">
-        <f>0.2*Load_all_2022!E10</f>
-        <v>5930.4000000000005</v>
+        <f>Load_bus_2023!E10*(1+2.5/100)^(2040-2023)</f>
+        <v>9023.804936084538</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -933,8 +937,8 @@
         <v>12</v>
       </c>
       <c r="E11">
-        <f>0.2*Load_all_2022!E11</f>
-        <v>6195</v>
+        <f>Load_bus_2023!E11*(1+2.5/100)^(2040-2023)</f>
+        <v>9426.4251279919918</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -954,8 +958,8 @@
         <v>12</v>
       </c>
       <c r="E12">
-        <f>0.2*Load_all_2022!E12</f>
-        <v>6713.4000000000005</v>
+        <f>Load_bus_2023!E12*(1+2.5/100)^(2040-2023)</f>
+        <v>10215.23203458619</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -975,8 +979,8 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <f>0.2*Load_all_2022!E13</f>
-        <v>6535</v>
+        <f>Load_bus_2023!E13*(1+2.5/100)^(2040-2023)</f>
+        <v>9943.7753367921978</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -996,8 +1000,8 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <f>0.2*Load_all_2022!E14</f>
-        <v>5432.6</v>
+        <f>Load_bus_2023!E14*(1+2.5/100)^(2040-2023)</f>
+        <v>8266.3433656705893</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1017,8 +1021,8 @@
         <v>12</v>
       </c>
       <c r="E15">
-        <f>0.2*Load_all_2022!E15</f>
-        <v>5783.4000000000005</v>
+        <f>Load_bus_2023!E15*(1+2.5/100)^(2040-2023)</f>
+        <v>8800.1270516915083</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1038,8 +1042,8 @@
         <v>12</v>
       </c>
       <c r="E16">
-        <f>0.2*Load_all_2022!E16</f>
-        <v>6238.2000000000007</v>
+        <f>Load_bus_2023!E16*(1+2.5/100)^(2040-2023)</f>
+        <v>9492.1590368748421</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1059,8 +1063,8 @@
         <v>12</v>
       </c>
       <c r="E17">
-        <f>0.2*Load_all_2022!E17</f>
-        <v>5911.4000000000005</v>
+        <f>Load_bus_2023!E17*(1+2.5/100)^(2040-2023)</f>
+        <v>8994.894189122173</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1080,8 +1084,8 @@
         <v>10</v>
       </c>
       <c r="E18">
-        <f>0.45*Load_all_2022!E2</f>
-        <v>8752.5</v>
+        <f>Load_bus_2023!E18*(1+2.5/100)^(2040-2023)</f>
+        <v>13317.963830952367</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1101,8 +1105,8 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <f>0.45*Load_all_2022!E3</f>
-        <v>8892</v>
+        <f>Load_bus_2023!E19*(1+2.5/100)^(2040-2023)</f>
+        <v>13530.229578386568</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -1122,8 +1126,8 @@
         <v>10</v>
       </c>
       <c r="E20">
-        <f>0.45*Load_all_2022!E4</f>
-        <v>11601.9</v>
+        <f>Load_bus_2023!E20*(1+2.5/100)^(2040-2023)</f>
+        <v>17653.662904350331</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -1143,8 +1147,8 @@
         <v>10</v>
       </c>
       <c r="E21">
-        <f>0.45*Load_all_2022!E5</f>
-        <v>9381.15</v>
+        <f>Load_bus_2023!E21*(1+2.5/100)^(2040-2023)</f>
+        <v>14274.529150841336</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -1164,8 +1168,8 @@
         <v>10</v>
       </c>
       <c r="E22">
-        <f>0.45*Load_all_2022!E6</f>
-        <v>7426.8</v>
+        <f>Load_bus_2023!E22*(1+2.5/100)^(2040-2023)</f>
+        <v>11300.754502109916</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -1185,8 +1189,8 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <f>0.45*Load_all_2022!E7</f>
-        <v>7127.55</v>
+        <f>Load_bus_2023!E23*(1+2.5/100)^(2040-2023)</f>
+        <v>10845.410237452676</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -1206,8 +1210,8 @@
         <v>10</v>
       </c>
       <c r="E24">
-        <f>0.45*Load_all_2022!E8</f>
-        <v>9174.6</v>
+        <f>Load_bus_2023!E24*(1+2.5/100)^(2040-2023)</f>
+        <v>13960.238898995211</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -1227,8 +1231,8 @@
         <v>10</v>
       </c>
       <c r="E25">
-        <f>0.45*Load_all_2022!E9</f>
-        <v>8374.5</v>
+        <f>Load_bus_2023!E25*(1+2.5/100)^(2040-2023)</f>
+        <v>12742.792128227431</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -1248,8 +1252,8 @@
         <v>12</v>
       </c>
       <c r="E26">
-        <f>0.45*Load_all_2022!E10</f>
-        <v>13343.4</v>
+        <f>Load_bus_2023!E26*(1+2.5/100)^(2040-2023)</f>
+        <v>20303.561106190209</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -1269,8 +1273,8 @@
         <v>12</v>
       </c>
       <c r="E27">
-        <f>0.45*Load_all_2022!E11</f>
-        <v>13938.75</v>
+        <f>Load_bus_2023!E27*(1+2.5/100)^(2040-2023)</f>
+        <v>21209.456537981983</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -1290,8 +1294,8 @@
         <v>12</v>
       </c>
       <c r="E28">
-        <f>0.45*Load_all_2022!E12</f>
-        <v>15105.15</v>
+        <f>Load_bus_2023!E28*(1+2.5/100)^(2040-2023)</f>
+        <v>22984.272077818925</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -1311,8 +1315,8 @@
         <v>12</v>
       </c>
       <c r="E29">
-        <f>0.45*Load_all_2022!E13</f>
-        <v>14703.75</v>
+        <f>Load_bus_2023!E29*(1+2.5/100)^(2040-2023)</f>
+        <v>22373.494507782445</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -1332,8 +1336,8 @@
         <v>12</v>
       </c>
       <c r="E30">
-        <f>0.45*Load_all_2022!E14</f>
-        <v>12223.35</v>
+        <f>Load_bus_2023!E30*(1+2.5/100)^(2040-2023)</f>
+        <v>18599.272572758826</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -1353,8 +1357,8 @@
         <v>12</v>
       </c>
       <c r="E31">
-        <f>0.45*Load_all_2022!E15</f>
-        <v>13012.65</v>
+        <f>Load_bus_2023!E31*(1+2.5/100)^(2040-2023)</f>
+        <v>19800.285866305891</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -1374,8 +1378,8 @@
         <v>12</v>
       </c>
       <c r="E32">
-        <f>0.45*Load_all_2022!E16</f>
-        <v>14035.95</v>
+        <f>Load_bus_2023!E32*(1+2.5/100)^(2040-2023)</f>
+        <v>21357.357832968395</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -1395,8 +1399,8 @@
         <v>12</v>
       </c>
       <c r="E33">
-        <f>0.45*Load_all_2022!E17</f>
-        <v>13300.65</v>
+        <f>Load_bus_2023!E33*(1+2.5/100)^(2040-2023)</f>
+        <v>20238.51192552489</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -1416,8 +1420,8 @@
         <v>10</v>
       </c>
       <c r="E34">
-        <f>0.35*Load_all_2022!E2</f>
-        <v>6807.5</v>
+        <f>Load_bus_2023!E34*(1+2.5/100)^(2040-2023)</f>
+        <v>10358.416312962952</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -1437,8 +1441,8 @@
         <v>10</v>
       </c>
       <c r="E35">
-        <f>0.35*Load_all_2022!E3</f>
-        <v>6916</v>
+        <f>Load_bus_2023!E35*(1+2.5/100)^(2040-2023)</f>
+        <v>10523.511894300664</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -1458,8 +1462,8 @@
         <v>10</v>
       </c>
       <c r="E36">
-        <f>0.35*Load_all_2022!E4</f>
-        <v>9023.6999999999989</v>
+        <f>Load_bus_2023!E36*(1+2.5/100)^(2040-2023)</f>
+        <v>13730.626703383588</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -1479,8 +1483,8 @@
         <v>10</v>
       </c>
       <c r="E37">
-        <f>0.35*Load_all_2022!E5</f>
-        <v>7296.45</v>
+        <f>Load_bus_2023!E37*(1+2.5/100)^(2040-2023)</f>
+        <v>11102.411561765482</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -1500,8 +1504,8 @@
         <v>10</v>
       </c>
       <c r="E38">
-        <f>0.35*Load_all_2022!E6</f>
-        <v>5776.4</v>
+        <f>Load_bus_2023!E38*(1+2.5/100)^(2040-2023)</f>
+        <v>8789.4757238632665</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -1521,8 +1525,8 @@
         <v>10</v>
       </c>
       <c r="E39">
-        <f>0.35*Load_all_2022!E7</f>
-        <v>5543.65</v>
+        <f>Load_bus_2023!E39*(1+2.5/100)^(2040-2023)</f>
+        <v>8435.3190735743028</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -1542,8 +1546,8 @@
         <v>10</v>
       </c>
       <c r="E40">
-        <f>0.35*Load_all_2022!E8</f>
-        <v>7135.7999999999993</v>
+        <f>Load_bus_2023!E40*(1+2.5/100)^(2040-2023)</f>
+        <v>10857.963588107385</v>
       </c>
       <c r="F40">
         <v>3</v>
@@ -1563,8 +1567,8 @@
         <v>10</v>
       </c>
       <c r="E41">
-        <f>0.35*Load_all_2022!E9</f>
-        <v>6513.5</v>
+        <f>Load_bus_2023!E41*(1+2.5/100)^(2040-2023)</f>
+        <v>9911.0605441768912</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -1584,8 +1588,8 @@
         <v>12</v>
       </c>
       <c r="E42">
-        <f>0.35*Load_all_2022!E10</f>
-        <v>10378.199999999999</v>
+        <f>Load_bus_2023!E42*(1+2.5/100)^(2040-2023)</f>
+        <v>15791.658638147939</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -1605,8 +1609,8 @@
         <v>12</v>
       </c>
       <c r="E43">
-        <f>0.35*Load_all_2022!E11</f>
-        <v>10841.25</v>
+        <f>Load_bus_2023!E43*(1+2.5/100)^(2040-2023)</f>
+        <v>16496.243973985987</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -1626,8 +1630,8 @@
         <v>12</v>
       </c>
       <c r="E44">
-        <f>0.35*Load_all_2022!E12</f>
-        <v>11748.449999999999</v>
+        <f>Load_bus_2023!E44*(1+2.5/100)^(2040-2023)</f>
+        <v>17876.656060525827</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -1647,8 +1651,8 @@
         <v>12</v>
       </c>
       <c r="E45">
-        <f>0.35*Load_all_2022!E13</f>
-        <v>11436.25</v>
+        <f>Load_bus_2023!E45*(1+2.5/100)^(2040-2023)</f>
+        <v>17401.606839386346</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -1668,8 +1672,8 @@
         <v>12</v>
       </c>
       <c r="E46">
-        <f>0.35*Load_all_2022!E14</f>
-        <v>9507.0499999999993</v>
+        <f>Load_bus_2023!E46*(1+2.5/100)^(2040-2023)</f>
+        <v>14466.100889923529</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -1689,8 +1693,8 @@
         <v>12</v>
       </c>
       <c r="E47">
-        <f>0.35*Load_all_2022!E15</f>
-        <v>10120.949999999999</v>
+        <f>Load_bus_2023!E47*(1+2.5/100)^(2040-2023)</f>
+        <v>15400.222340460135</v>
       </c>
       <c r="F47">
         <v>3</v>
@@ -1710,8 +1714,8 @@
         <v>12</v>
       </c>
       <c r="E48">
-        <f>0.35*Load_all_2022!E16</f>
-        <v>10916.849999999999</v>
+        <f>Load_bus_2023!E48*(1+2.5/100)^(2040-2023)</f>
+        <v>16611.27831453097</v>
       </c>
       <c r="F48">
         <v>3</v>
@@ -1731,7 +1735,1050 @@
         <v>12</v>
       </c>
       <c r="E49">
-        <f>0.35*Load_all_2022!E17</f>
+        <f>Load_bus_2023!E49*(1+2.5/100)^(2040-2023)</f>
+        <v>15741.064830963802</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>1056</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <f>0.2*Load_all_2023!E2</f>
+        <v>3890</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1040</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <f>0.2*Load_all_2023!E3</f>
+        <v>3952</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1056</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <f>0.2*Load_all_2023!E4</f>
+        <v>5156.4000000000005</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1024</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <f>0.2*Load_all_2023!E5</f>
+        <v>4169.4000000000005</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1176</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <f>0.2*Load_all_2023!E6</f>
+        <v>3300.8</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1144</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <f>0.2*Load_all_2023!E7</f>
+        <v>3167.8</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1152</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f>0.2*Load_all_2023!E8</f>
+        <v>4077.6000000000004</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1112</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <f>0.2*Load_all_2023!E9</f>
+        <v>3722</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1056</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <f>0.2*Load_all_2023!E10</f>
+        <v>5930.4000000000005</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1040</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <f>0.2*Load_all_2023!E11</f>
+        <v>6195</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>1056</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <f>0.2*Load_all_2023!E12</f>
+        <v>6713.4000000000005</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>1024</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <f>0.2*Load_all_2023!E13</f>
+        <v>6535</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>1176</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <f>0.2*Load_all_2023!E14</f>
+        <v>5432.6</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>1144</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <f>0.2*Load_all_2023!E15</f>
+        <v>5783.4000000000005</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>1152</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <f>0.2*Load_all_2023!E16</f>
+        <v>6238.2000000000007</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>1112</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <f>0.2*Load_all_2023!E17</f>
+        <v>5911.4000000000005</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>1056</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <f>0.45*Load_all_2023!E2</f>
+        <v>8752.5</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>1040</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <f>0.45*Load_all_2023!E3</f>
+        <v>8892</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>1056</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <f>0.45*Load_all_2023!E4</f>
+        <v>11601.9</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>1024</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <f>0.45*Load_all_2023!E5</f>
+        <v>9381.15</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>1176</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <f>0.45*Load_all_2023!E6</f>
+        <v>7426.8</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>1144</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <f>0.45*Load_all_2023!E7</f>
+        <v>7127.55</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>1152</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <f>0.45*Load_all_2023!E8</f>
+        <v>9174.6</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>1112</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <f>0.45*Load_all_2023!E9</f>
+        <v>8374.5</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>1056</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <f>0.45*Load_all_2023!E10</f>
+        <v>13343.4</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>1040</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <f>0.45*Load_all_2023!E11</f>
+        <v>13938.75</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>1056</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <f>0.45*Load_all_2023!E12</f>
+        <v>15105.15</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>1024</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <f>0.45*Load_all_2023!E13</f>
+        <v>14703.75</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>1176</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <f>0.45*Load_all_2023!E14</f>
+        <v>12223.35</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>1144</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <f>0.45*Load_all_2023!E15</f>
+        <v>13012.65</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>1152</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <f>0.45*Load_all_2023!E16</f>
+        <v>14035.95</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>1112</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <f>0.45*Load_all_2023!E17</f>
+        <v>13300.65</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>1056</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <f>0.35*Load_all_2023!E2</f>
+        <v>6807.5</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>1040</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <f>0.35*Load_all_2023!E3</f>
+        <v>6916</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>1056</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <f>0.35*Load_all_2023!E4</f>
+        <v>9023.6999999999989</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>1024</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <f>0.35*Load_all_2023!E5</f>
+        <v>7296.45</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>1176</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <f>0.35*Load_all_2023!E6</f>
+        <v>5776.4</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>1144</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <f>0.35*Load_all_2023!E7</f>
+        <v>5543.65</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>1152</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <f>0.35*Load_all_2023!E8</f>
+        <v>7135.7999999999993</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>1112</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <f>0.35*Load_all_2023!E9</f>
+        <v>6513.5</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>1056</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <f>0.35*Load_all_2023!E10</f>
+        <v>10378.199999999999</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>1040</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <f>0.35*Load_all_2023!E11</f>
+        <v>10841.25</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>1056</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <f>0.35*Load_all_2023!E12</f>
+        <v>11748.449999999999</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>1024</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <f>0.35*Load_all_2023!E13</f>
+        <v>11436.25</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>1176</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <f>0.35*Load_all_2023!E14</f>
+        <v>9507.0499999999993</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>1144</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <f>0.35*Load_all_2023!E15</f>
+        <v>10120.949999999999</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>1152</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48">
+        <f>0.35*Load_all_2023!E16</f>
+        <v>10916.849999999999</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>1112</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <f>0.35*Load_all_2023!E17</f>
         <v>10344.949999999999</v>
       </c>
       <c r="F49">
@@ -1747,8 +2794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1790,8 +2837,8 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <f>Load_all_2022!E2*(1+0.9/100)^(2040-2022)</f>
-        <v>22853.914481095948</v>
+        <f>Load_all_2023!E2*(1+0.9/100)^(2030-2023)</f>
+        <v>20708.935207341747</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1808,8 +2855,8 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <f>Load_all_2022!E3*(1+0.9/100)^(2040-2022)</f>
-        <v>23218.167102645548</v>
+        <f>Load_all_2023!E3*(1+0.9/100)^(2030-2023)</f>
+        <v>21039.000498564161</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1826,8 +2873,8 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <f>Load_all_2022!E4*(1+0.9/100)^(2040-2022)</f>
-        <v>30294.068028360703</v>
+        <f>Load_all_2023!E4*(1+0.9/100)^(2030-2023)</f>
+        <v>27450.784962246013</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1844,8 +2891,8 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <f>Load_all_2022!E5*(1+0.9/100)^(2040-2022)</f>
-        <v>24495.401294982374</v>
+        <f>Load_all_2023!E5*(1+0.9/100)^(2030-2023)</f>
+        <v>22196.358471334366</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1862,8 +2909,8 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <f>Load_all_2022!E6*(1+0.9/100)^(2040-2022)</f>
-        <v>19392.339567918123</v>
+        <f>Load_all_2023!E6*(1+0.9/100)^(2030-2023)</f>
+        <v>17572.250213982941</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1880,8 +2927,8 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <f>Load_all_2022!E7*(1+0.9/100)^(2040-2022)</f>
-        <v>18610.958944271399</v>
+        <f>Load_all_2023!E7*(1+0.9/100)^(2030-2023)</f>
+        <v>16864.20692797357</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1898,8 +2945,8 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <f>Load_all_2022!E8*(1+0.9/100)^(2040-2022)</f>
-        <v>23956.072413397644</v>
+        <f>Load_all_2023!E8*(1+0.9/100)^(2030-2023)</f>
+        <v>21707.648894976017</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1916,8 +2963,8 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <f>Load_all_2022!E9*(1+0.9/100)^(2040-2022)</f>
-        <v>21866.907377542189</v>
+        <f>Load_all_2023!E9*(1+0.9/100)^(2030-2023)</f>
+        <v>19814.564740803595</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1934,8 +2981,8 @@
         <v>12</v>
       </c>
       <c r="E10">
-        <f>Load_all_2022!E10*(1+0.9/100)^(2040-2022)</f>
-        <v>34841.35075544766</v>
+        <f>Load_all_2023!E10*(1+0.9/100)^(2030-2023)</f>
+        <v>31571.277468796787</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1952,8 +2999,8 @@
         <v>12</v>
       </c>
       <c r="E11">
-        <f>Load_all_2022!E11*(1+0.9/100)^(2040-2022)</f>
-        <v>36395.886943544829</v>
+        <f>Load_all_2023!E11*(1+0.9/100)^(2030-2023)</f>
+        <v>32979.910953594379</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1970,8 +3017,8 @@
         <v>12</v>
       </c>
       <c r="E12">
-        <f>Load_all_2022!E12*(1+0.9/100)^(2040-2022)</f>
-        <v>39441.508863082141</v>
+        <f>Load_all_2023!E12*(1+0.9/100)^(2030-2023)</f>
+        <v>35739.682678912104</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1988,8 +3035,8 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <f>Load_all_2022!E13*(1+0.9/100)^(2040-2022)</f>
-        <v>38393.401319784578</v>
+        <f>Load_all_2023!E13*(1+0.9/100)^(2030-2023)</f>
+        <v>34789.946421588254</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2006,8 +3053,8 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <f>Load_all_2022!E14*(1+0.9/100)^(2040-2022)</f>
-        <v>31916.754706941349</v>
+        <f>Load_all_2023!E14*(1+0.9/100)^(2030-2023)</f>
+        <v>28921.172598304569</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2024,8 +3071,8 @@
         <v>12</v>
       </c>
       <c r="E15">
-        <f>Load_all_2022!E15*(1+0.9/100)^(2040-2022)</f>
-        <v>33977.719539838123</v>
+        <f>Load_all_2023!E15*(1+0.9/100)^(2030-2023)</f>
+        <v>30788.7033105759</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2042,8 +3089,8 @@
         <v>12</v>
       </c>
       <c r="E16">
-        <f>Load_all_2022!E16*(1+0.9/100)^(2040-2022)</f>
-        <v>36649.688770172943</v>
+        <f>Load_all_2023!E16*(1+0.9/100)^(2030-2023)</f>
+        <v>33209.891930704187</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2060,8 +3107,8 @@
         <v>12</v>
       </c>
       <c r="E17">
-        <f>Load_all_2022!E17*(1+0.9/100)^(2040-2022)</f>
-        <v>34729.724952069555</v>
+        <f>Load_all_2023!E17*(1+0.9/100)^(2030-2023)</f>
+        <v>31470.128427938304</v>
       </c>
     </row>
   </sheetData>
@@ -2074,7 +3121,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2113,8 +3160,8 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <f>Load_bus_2022!E2*(1+0.9/100)^(2040-2022)</f>
-        <v>4570.7828962191898</v>
+        <f>Load_bus_2023!E2*(1+0.9/100)^(2030-2023)</f>
+        <v>4141.7870414683493</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2134,8 +3181,8 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <f>Load_bus_2022!E3*(1+0.9/100)^(2040-2022)</f>
-        <v>4643.6334205291096</v>
+        <f>Load_bus_2023!E3*(1+0.9/100)^(2030-2023)</f>
+        <v>4207.800099712832</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2155,8 +3202,8 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <f>Load_bus_2022!E4*(1+0.9/100)^(2040-2022)</f>
-        <v>6058.8136056721414</v>
+        <f>Load_bus_2023!E4*(1+0.9/100)^(2030-2023)</f>
+        <v>5490.1569924492023</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2176,8 +3223,8 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <f>Load_bus_2022!E5*(1+0.9/100)^(2040-2022)</f>
-        <v>4899.080258996476</v>
+        <f>Load_bus_2023!E5*(1+0.9/100)^(2030-2023)</f>
+        <v>4439.271694266874</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2197,8 +3244,8 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <f>Load_bus_2022!E6*(1+0.9/100)^(2040-2022)</f>
-        <v>3878.467913583625</v>
+        <f>Load_bus_2023!E6*(1+0.9/100)^(2030-2023)</f>
+        <v>3514.4500427965881</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2218,8 +3265,8 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <f>Load_bus_2022!E7*(1+0.9/100)^(2040-2022)</f>
-        <v>3722.1917888542798</v>
+        <f>Load_bus_2023!E7*(1+0.9/100)^(2030-2023)</f>
+        <v>3372.8413855947142</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2239,8 +3286,8 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <f>Load_bus_2022!E8*(1+0.9/100)^(2040-2022)</f>
-        <v>4791.2144826795293</v>
+        <f>Load_bus_2023!E8*(1+0.9/100)^(2030-2023)</f>
+        <v>4341.5297789952037</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2260,8 +3307,8 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <f>Load_bus_2022!E9*(1+0.9/100)^(2040-2022)</f>
-        <v>4373.3814755084377</v>
+        <f>Load_bus_2023!E9*(1+0.9/100)^(2030-2023)</f>
+        <v>3962.9129481607188</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2281,8 +3328,8 @@
         <v>12</v>
       </c>
       <c r="E10">
-        <f>Load_bus_2022!E10*(1+0.9/100)^(2040-2022)</f>
-        <v>6968.2701510895331</v>
+        <f>Load_bus_2023!E10*(1+0.9/100)^(2030-2023)</f>
+        <v>6314.2554937593577</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2302,8 +3349,8 @@
         <v>12</v>
       </c>
       <c r="E11">
-        <f>Load_bus_2022!E11*(1+0.9/100)^(2040-2022)</f>
-        <v>7279.1773887089657</v>
+        <f>Load_bus_2023!E11*(1+0.9/100)^(2030-2023)</f>
+        <v>6595.9821907188752</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2323,8 +3370,8 @@
         <v>12</v>
       </c>
       <c r="E12">
-        <f>Load_bus_2022!E12*(1+0.9/100)^(2040-2022)</f>
-        <v>7888.3017726164289</v>
+        <f>Load_bus_2023!E12*(1+0.9/100)^(2030-2023)</f>
+        <v>7147.9365357824208</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2344,8 +3391,8 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <f>Load_bus_2022!E13*(1+0.9/100)^(2040-2022)</f>
-        <v>7678.680263956916</v>
+        <f>Load_bus_2023!E13*(1+0.9/100)^(2030-2023)</f>
+        <v>6957.9892843176513</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2365,8 +3412,8 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <f>Load_bus_2022!E14*(1+0.9/100)^(2040-2022)</f>
-        <v>6383.3509413882703</v>
+        <f>Load_bus_2023!E14*(1+0.9/100)^(2030-2023)</f>
+        <v>5784.234519660914</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2386,8 +3433,8 @@
         <v>12</v>
       </c>
       <c r="E15">
-        <f>Load_bus_2022!E15*(1+0.9/100)^(2040-2022)</f>
-        <v>6795.5439079676253</v>
+        <f>Load_bus_2023!E15*(1+0.9/100)^(2030-2023)</f>
+        <v>6157.7406621151813</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2407,8 +3454,8 @@
         <v>12</v>
       </c>
       <c r="E16">
-        <f>Load_bus_2022!E16*(1+0.9/100)^(2040-2022)</f>
-        <v>7329.9377540345886</v>
+        <f>Load_bus_2023!E16*(1+0.9/100)^(2030-2023)</f>
+        <v>6641.9783861408378</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2428,8 +3475,8 @@
         <v>12</v>
       </c>
       <c r="E17">
-        <f>Load_bus_2022!E17*(1+0.9/100)^(2040-2022)</f>
-        <v>6945.9449904139119</v>
+        <f>Load_bus_2023!E17*(1+0.9/100)^(2030-2023)</f>
+        <v>6294.0256855876614</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2449,8 +3496,8 @@
         <v>10</v>
       </c>
       <c r="E18">
-        <f>Load_bus_2022!E18*(1+0.9/100)^(2040-2022)</f>
-        <v>10284.261516493176</v>
+        <f>Load_bus_2023!E18*(1+0.9/100)^(2030-2023)</f>
+        <v>9319.020843303786</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -2470,8 +3517,8 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <f>Load_bus_2022!E19*(1+0.9/100)^(2040-2022)</f>
-        <v>10448.175196190496</v>
+        <f>Load_bus_2023!E19*(1+0.9/100)^(2030-2023)</f>
+        <v>9467.5502243538722</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -2491,8 +3538,8 @@
         <v>10</v>
       </c>
       <c r="E20">
-        <f>Load_bus_2022!E20*(1+0.9/100)^(2040-2022)</f>
-        <v>13632.330612762316</v>
+        <f>Load_bus_2023!E20*(1+0.9/100)^(2030-2023)</f>
+        <v>12352.853233010705</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -2512,8 +3559,8 @@
         <v>10</v>
       </c>
       <c r="E21">
-        <f>Load_bus_2022!E21*(1+0.9/100)^(2040-2022)</f>
-        <v>11022.930582742069</v>
+        <f>Load_bus_2023!E21*(1+0.9/100)^(2030-2023)</f>
+        <v>9988.3613121004637</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -2533,8 +3580,8 @@
         <v>10</v>
       </c>
       <c r="E22">
-        <f>Load_bus_2022!E22*(1+0.9/100)^(2040-2022)</f>
-        <v>8726.5528055631567</v>
+        <f>Load_bus_2023!E22*(1+0.9/100)^(2030-2023)</f>
+        <v>7907.512596292323</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -2554,8 +3601,8 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <f>Load_bus_2022!E23*(1+0.9/100)^(2040-2022)</f>
-        <v>8374.931524922129</v>
+        <f>Load_bus_2023!E23*(1+0.9/100)^(2030-2023)</f>
+        <v>7588.8931175881062</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -2575,8 +3622,8 @@
         <v>10</v>
       </c>
       <c r="E24">
-        <f>Load_bus_2022!E24*(1+0.9/100)^(2040-2022)</f>
-        <v>10780.23258602894</v>
+        <f>Load_bus_2023!E24*(1+0.9/100)^(2030-2023)</f>
+        <v>9768.442002739208</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -2596,8 +3643,8 @@
         <v>10</v>
       </c>
       <c r="E25">
-        <f>Load_bus_2022!E25*(1+0.9/100)^(2040-2022)</f>
-        <v>9840.108319893985</v>
+        <f>Load_bus_2023!E25*(1+0.9/100)^(2030-2023)</f>
+        <v>8916.5541333616166</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -2617,8 +3664,8 @@
         <v>12</v>
       </c>
       <c r="E26">
-        <f>Load_bus_2022!E26*(1+0.9/100)^(2040-2022)</f>
-        <v>15678.607839951446</v>
+        <f>Load_bus_2023!E26*(1+0.9/100)^(2030-2023)</f>
+        <v>14207.074860958553</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -2638,8 +3685,8 @@
         <v>12</v>
       </c>
       <c r="E27">
-        <f>Load_bus_2022!E27*(1+0.9/100)^(2040-2022)</f>
-        <v>16378.149124595173</v>
+        <f>Load_bus_2023!E27*(1+0.9/100)^(2030-2023)</f>
+        <v>14840.959929117469</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -2659,8 +3706,8 @@
         <v>12</v>
       </c>
       <c r="E28">
-        <f>Load_bus_2022!E28*(1+0.9/100)^(2040-2022)</f>
-        <v>17748.678988386964</v>
+        <f>Load_bus_2023!E28*(1+0.9/100)^(2030-2023)</f>
+        <v>16082.857205510447</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -2680,8 +3727,8 @@
         <v>12</v>
       </c>
       <c r="E29">
-        <f>Load_bus_2022!E29*(1+0.9/100)^(2040-2022)</f>
-        <v>17277.030593903059</v>
+        <f>Load_bus_2023!E29*(1+0.9/100)^(2030-2023)</f>
+        <v>15655.475889714715</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -2701,8 +3748,8 @@
         <v>12</v>
       </c>
       <c r="E30">
-        <f>Load_bus_2022!E30*(1+0.9/100)^(2040-2022)</f>
-        <v>14362.539618123606</v>
+        <f>Load_bus_2023!E30*(1+0.9/100)^(2030-2023)</f>
+        <v>13014.527669237057</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -2722,8 +3769,8 @@
         <v>12</v>
       </c>
       <c r="E31">
-        <f>Load_bus_2022!E31*(1+0.9/100)^(2040-2022)</f>
-        <v>15289.973792927154</v>
+        <f>Load_bus_2023!E31*(1+0.9/100)^(2030-2023)</f>
+        <v>13854.916489759156</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -2743,8 +3790,8 @@
         <v>12</v>
       </c>
       <c r="E32">
-        <f>Load_bus_2022!E32*(1+0.9/100)^(2040-2022)</f>
-        <v>16492.359946577824</v>
+        <f>Load_bus_2023!E32*(1+0.9/100)^(2030-2023)</f>
+        <v>14944.451368816884</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -2764,8 +3811,8 @@
         <v>12</v>
       </c>
       <c r="E33">
-        <f>Load_bus_2022!E33*(1+0.9/100)^(2040-2022)</f>
-        <v>15628.3762284313</v>
+        <f>Load_bus_2023!E33*(1+0.9/100)^(2030-2023)</f>
+        <v>14161.557792572235</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -2785,8 +3832,8 @@
         <v>10</v>
       </c>
       <c r="E34">
-        <f>Load_bus_2022!E34*(1+0.9/100)^(2040-2022)</f>
-        <v>7998.8700683835814</v>
+        <f>Load_bus_2023!E34*(1+0.9/100)^(2030-2023)</f>
+        <v>7248.1273225696114</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -2806,8 +3853,8 @@
         <v>10</v>
       </c>
       <c r="E35">
-        <f>Load_bus_2022!E35*(1+0.9/100)^(2040-2022)</f>
-        <v>8126.3584859259417</v>
+        <f>Load_bus_2023!E35*(1+0.9/100)^(2030-2023)</f>
+        <v>7363.6501744974557</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -2827,8 +3874,8 @@
         <v>10</v>
       </c>
       <c r="E36">
-        <f>Load_bus_2022!E36*(1+0.9/100)^(2040-2022)</f>
-        <v>10602.923809926246</v>
+        <f>Load_bus_2023!E36*(1+0.9/100)^(2030-2023)</f>
+        <v>9607.7747367861029</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -2848,8 +3895,8 @@
         <v>10</v>
       </c>
       <c r="E37">
-        <f>Load_bus_2022!E37*(1+0.9/100)^(2040-2022)</f>
-        <v>8573.3904532438319</v>
+        <f>Load_bus_2023!E37*(1+0.9/100)^(2030-2023)</f>
+        <v>7768.7254649670276</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -2869,8 +3916,8 @@
         <v>10</v>
       </c>
       <c r="E38">
-        <f>Load_bus_2022!E38*(1+0.9/100)^(2040-2022)</f>
-        <v>6787.3188487713433</v>
+        <f>Load_bus_2023!E38*(1+0.9/100)^(2030-2023)</f>
+        <v>6150.2875748940287</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -2890,8 +3937,8 @@
         <v>10</v>
       </c>
       <c r="E39">
-        <f>Load_bus_2022!E39*(1+0.9/100)^(2040-2022)</f>
-        <v>6513.8356304949893</v>
+        <f>Load_bus_2023!E39*(1+0.9/100)^(2030-2023)</f>
+        <v>5902.4724247907488</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -2911,8 +3958,8 @@
         <v>10</v>
       </c>
       <c r="E40">
-        <f>Load_bus_2022!E40*(1+0.9/100)^(2040-2022)</f>
-        <v>8384.6253446891751</v>
+        <f>Load_bus_2023!E40*(1+0.9/100)^(2030-2023)</f>
+        <v>7597.6771132416052</v>
       </c>
       <c r="F40">
         <v>3</v>
@@ -2932,8 +3979,8 @@
         <v>10</v>
       </c>
       <c r="E41">
-        <f>Load_bus_2022!E41*(1+0.9/100)^(2040-2022)</f>
-        <v>7653.4175821397657</v>
+        <f>Load_bus_2023!E41*(1+0.9/100)^(2030-2023)</f>
+        <v>6935.0976592812576</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -2953,8 +4000,8 @@
         <v>12</v>
       </c>
       <c r="E42">
-        <f>Load_bus_2022!E42*(1+0.9/100)^(2040-2022)</f>
-        <v>12194.472764406681</v>
+        <f>Load_bus_2023!E42*(1+0.9/100)^(2030-2023)</f>
+        <v>11049.947114078874</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -2974,8 +4021,8 @@
         <v>12</v>
       </c>
       <c r="E43">
-        <f>Load_bus_2022!E43*(1+0.9/100)^(2040-2022)</f>
-        <v>12738.56043024069</v>
+        <f>Load_bus_2023!E43*(1+0.9/100)^(2030-2023)</f>
+        <v>11542.968833758032</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -2995,8 +4042,8 @@
         <v>12</v>
       </c>
       <c r="E44">
-        <f>Load_bus_2022!E44*(1+0.9/100)^(2040-2022)</f>
-        <v>13804.528102078748</v>
+        <f>Load_bus_2023!E44*(1+0.9/100)^(2030-2023)</f>
+        <v>12508.888937619235</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -3016,8 +4063,8 @@
         <v>12</v>
       </c>
       <c r="E45">
-        <f>Load_bus_2022!E45*(1+0.9/100)^(2040-2022)</f>
-        <v>13437.690461924603</v>
+        <f>Load_bus_2023!E45*(1+0.9/100)^(2030-2023)</f>
+        <v>12176.48124755589</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -3037,8 +4084,8 @@
         <v>12</v>
       </c>
       <c r="E46">
-        <f>Load_bus_2022!E46*(1+0.9/100)^(2040-2022)</f>
-        <v>11170.864147429471</v>
+        <f>Load_bus_2023!E46*(1+0.9/100)^(2030-2023)</f>
+        <v>10122.410409406599</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -3058,8 +4105,8 @@
         <v>12</v>
       </c>
       <c r="E47">
-        <f>Load_bus_2022!E47*(1+0.9/100)^(2040-2022)</f>
-        <v>11892.201838943341</v>
+        <f>Load_bus_2023!E47*(1+0.9/100)^(2030-2023)</f>
+        <v>10776.046158701565</v>
       </c>
       <c r="F47">
         <v>3</v>
@@ -3079,8 +4126,8 @@
         <v>12</v>
       </c>
       <c r="E48">
-        <f>Load_bus_2022!E48*(1+0.9/100)^(2040-2022)</f>
-        <v>12827.391069560526</v>
+        <f>Load_bus_2023!E48*(1+0.9/100)^(2030-2023)</f>
+        <v>11623.462175746463</v>
       </c>
       <c r="F48">
         <v>3</v>
@@ -3100,8 +4147,8 @@
         <v>12</v>
       </c>
       <c r="E49">
-        <f>Load_bus_2022!E49*(1+0.9/100)^(2040-2022)</f>
-        <v>12155.403733224344</v>
+        <f>Load_bus_2023!E49*(1+0.9/100)^(2030-2023)</f>
+        <v>11014.544949778405</v>
       </c>
       <c r="F49">
         <v>3</v>
@@ -3117,7 +4164,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3159,8 +4206,8 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <f>Load_all_2022!E2*(1+2.5/100)^(2040-2022)</f>
-        <v>30335.362059391504</v>
+        <f>Load_all_2023!E2*(1+2.5/100)^(2030-2023)</f>
+        <v>23119.937908846732</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -3177,8 +4224,8 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <f>Load_all_2022!E3*(1+2.5/100)^(2040-2022)</f>
-        <v>30818.856261880519</v>
+        <f>Load_all_2023!E3*(1+2.5/100)^(2030-2023)</f>
+        <v>23488.43049248388</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -3195,8 +4242,8 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <f>Load_all_2022!E4*(1+2.5/100)^(2040-2022)</f>
-        <v>40211.121059909085</v>
+        <f>Load_all_2023!E4*(1+2.5/100)^(2030-2023)</f>
+        <v>30646.696101073856</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3213,8 +4260,8 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <f>Load_all_2022!E5*(1+2.5/100)^(2040-2022)</f>
-        <v>32514.20528802749</v>
+        <f>Load_all_2023!E5*(1+2.5/100)^(2030-2023)</f>
+        <v>24780.531906721226</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -3231,8 +4278,8 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <f>Load_all_2022!E6*(1+2.5/100)^(2040-2022)</f>
-        <v>25740.607477028141</v>
+        <f>Load_all_2023!E6*(1+2.5/100)^(2030-2023)</f>
+        <v>19618.069678540178</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3249,8 +4296,8 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <f>Load_all_2022!E7*(1+2.5/100)^(2040-2022)</f>
-        <v>24703.434429753317</v>
+        <f>Load_all_2023!E7*(1+2.5/100)^(2030-2023)</f>
+        <v>18827.593652350817</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -3267,8 +4314,8 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <f>Load_all_2022!E8*(1+2.5/100)^(2040-2022)</f>
-        <v>31798.321936600205</v>
+        <f>Load_all_2023!E8*(1+2.5/100)^(2030-2023)</f>
+        <v>24234.925145787518</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -3285,8 +4332,8 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <f>Load_all_2022!E9*(1+2.5/100)^(2040-2022)</f>
-        <v>29025.248736518039</v>
+        <f>Load_all_2023!E9*(1+2.5/100)^(2030-2023)</f>
+        <v>22121.441875765435</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -3303,8 +4350,8 @@
         <v>12</v>
       </c>
       <c r="E10">
-        <f>Load_all_2022!E10*(1+2.5/100)^(2040-2022)</f>
-        <v>46247.000297433253</v>
+        <f>Load_all_2023!E10*(1+2.5/100)^(2030-2023)</f>
+        <v>35246.90996776984</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -3321,8 +4368,8 @@
         <v>12</v>
       </c>
       <c r="E11">
-        <f>Load_all_2022!E11*(1+2.5/100)^(2040-2022)</f>
-        <v>48310.428780958959</v>
+        <f>Load_all_2023!E11*(1+2.5/100)^(2030-2023)</f>
+        <v>36819.541219872881</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -3339,8 +4386,8 @@
         <v>12</v>
       </c>
       <c r="E12">
-        <f>Load_all_2022!E12*(1+2.5/100)^(2040-2022)</f>
-        <v>52353.064177254222</v>
+        <f>Load_all_2023!E12*(1+2.5/100)^(2030-2023)</f>
+        <v>39900.614693380892</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -3357,8 +4404,8 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <f>Load_all_2022!E13*(1+2.5/100)^(2040-2022)</f>
-        <v>50961.848601060017</v>
+        <f>Load_all_2023!E13*(1+2.5/100)^(2030-2023)</f>
+        <v>38840.307001108842</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -3375,8 +4422,8 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <f>Load_all_2022!E14*(1+2.5/100)^(2040-2022)</f>
-        <v>42365.00974906177</v>
+        <f>Load_all_2023!E14*(1+2.5/100)^(2030-2023)</f>
+        <v>32288.271126889656</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -3393,8 +4440,8 @@
         <v>12</v>
       </c>
       <c r="E15">
-        <f>Load_all_2022!E15*(1+2.5/100)^(2040-2022)</f>
-        <v>45100.651139918977</v>
+        <f>Load_all_2023!E15*(1+2.5/100)^(2030-2023)</f>
+        <v>34373.2259388237</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -3411,8 +4458,8 @@
         <v>12</v>
       </c>
       <c r="E16">
-        <f>Load_all_2022!E16*(1+2.5/100)^(2040-2022)</f>
-        <v>48647.315063983566</v>
+        <f>Load_all_2023!E16*(1+2.5/100)^(2030-2023)</f>
+        <v>37076.297342665217</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3429,8 +4476,8 @@
         <v>12</v>
       </c>
       <c r="E17">
-        <f>Load_all_2022!E17*(1+2.5/100)^(2040-2022)</f>
-        <v>46098.832719251135</v>
+        <f>Load_all_2023!E17*(1+2.5/100)^(2030-2023)</f>
+        <v>35133.984821171354</v>
       </c>
     </row>
   </sheetData>
@@ -3442,8 +4489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3482,8 +4529,8 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <f>Load_bus_2022!E2*(1+2.5/100)^(2040-2022)</f>
-        <v>6067.072411878301</v>
+        <f>Load_bus_2023!E2*(1+2.5/100)^(2030-2023)</f>
+        <v>4623.9875817693464</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3503,8 +4550,8 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <f>Load_bus_2022!E3*(1+2.5/100)^(2040-2022)</f>
-        <v>6163.7712523761038</v>
+        <f>Load_bus_2023!E3*(1+2.5/100)^(2030-2023)</f>
+        <v>4697.6860984967761</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -3524,8 +4571,8 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <f>Load_bus_2022!E4*(1+2.5/100)^(2040-2022)</f>
-        <v>8042.2242119818184</v>
+        <f>Load_bus_2023!E4*(1+2.5/100)^(2030-2023)</f>
+        <v>6129.3392202147716</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -3545,8 +4592,8 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <f>Load_bus_2022!E5*(1+2.5/100)^(2040-2022)</f>
-        <v>6502.8410576054985</v>
+        <f>Load_bus_2023!E5*(1+2.5/100)^(2030-2023)</f>
+        <v>4956.1063813442461</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3566,8 +4613,8 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <f>Load_bus_2022!E6*(1+2.5/100)^(2040-2022)</f>
-        <v>5148.1214954056286</v>
+        <f>Load_bus_2023!E6*(1+2.5/100)^(2030-2023)</f>
+        <v>3923.613935708036</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3587,8 +4634,8 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <f>Load_bus_2022!E7*(1+2.5/100)^(2040-2022)</f>
-        <v>4940.686885950664</v>
+        <f>Load_bus_2023!E7*(1+2.5/100)^(2030-2023)</f>
+        <v>3765.518730470164</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -3608,8 +4655,8 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <f>Load_bus_2022!E8*(1+2.5/100)^(2040-2022)</f>
-        <v>6359.664387320041</v>
+        <f>Load_bus_2023!E8*(1+2.5/100)^(2030-2023)</f>
+        <v>4846.985029157504</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -3629,8 +4676,8 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <f>Load_bus_2022!E9*(1+2.5/100)^(2040-2022)</f>
-        <v>5805.0497473036075</v>
+        <f>Load_bus_2023!E9*(1+2.5/100)^(2030-2023)</f>
+        <v>4424.2883751530871</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -3650,8 +4697,8 @@
         <v>12</v>
       </c>
       <c r="E10">
-        <f>Load_bus_2022!E10*(1+2.5/100)^(2040-2022)</f>
-        <v>9249.400059486652</v>
+        <f>Load_bus_2023!E10*(1+2.5/100)^(2030-2023)</f>
+        <v>7049.3819935539677</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -3671,8 +4718,8 @@
         <v>12</v>
       </c>
       <c r="E11">
-        <f>Load_bus_2022!E11*(1+2.5/100)^(2040-2022)</f>
-        <v>9662.0857561917928</v>
+        <f>Load_bus_2023!E11*(1+2.5/100)^(2030-2023)</f>
+        <v>7363.9082439745762</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -3692,8 +4739,8 @@
         <v>12</v>
       </c>
       <c r="E12">
-        <f>Load_bus_2022!E12*(1+2.5/100)^(2040-2022)</f>
-        <v>10470.612835450846</v>
+        <f>Load_bus_2023!E12*(1+2.5/100)^(2030-2023)</f>
+        <v>7980.1229386761788</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3713,8 +4760,8 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <f>Load_bus_2022!E13*(1+2.5/100)^(2040-2022)</f>
-        <v>10192.369720212004</v>
+        <f>Load_bus_2023!E13*(1+2.5/100)^(2030-2023)</f>
+        <v>7768.061400221769</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -3734,8 +4781,8 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <f>Load_bus_2022!E14*(1+2.5/100)^(2040-2022)</f>
-        <v>8473.0019498123547</v>
+        <f>Load_bus_2023!E14*(1+2.5/100)^(2030-2023)</f>
+        <v>6457.6542253779317</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -3755,8 +4802,8 @@
         <v>12</v>
       </c>
       <c r="E15">
-        <f>Load_bus_2022!E15*(1+2.5/100)^(2040-2022)</f>
-        <v>9020.1302279837964</v>
+        <f>Load_bus_2023!E15*(1+2.5/100)^(2030-2023)</f>
+        <v>6874.6451877647405</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -3776,8 +4823,8 @@
         <v>12</v>
       </c>
       <c r="E16">
-        <f>Load_bus_2022!E16*(1+2.5/100)^(2040-2022)</f>
-        <v>9729.4630127967139</v>
+        <f>Load_bus_2023!E16*(1+2.5/100)^(2030-2023)</f>
+        <v>7415.2594685330441</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -3797,8 +4844,8 @@
         <v>12</v>
       </c>
       <c r="E17">
-        <f>Load_bus_2022!E17*(1+2.5/100)^(2040-2022)</f>
-        <v>9219.7665438502281</v>
+        <f>Load_bus_2023!E17*(1+2.5/100)^(2030-2023)</f>
+        <v>7026.7969642342723</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -3818,8 +4865,8 @@
         <v>10</v>
       </c>
       <c r="E18">
-        <f>Load_bus_2022!E18*(1+2.5/100)^(2040-2022)</f>
-        <v>13650.912926726176</v>
+        <f>Load_bus_2023!E18*(1+2.5/100)^(2030-2023)</f>
+        <v>10403.972058981029</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -3839,8 +4886,8 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <f>Load_bus_2022!E19*(1+2.5/100)^(2040-2022)</f>
-        <v>13868.485317846233</v>
+        <f>Load_bus_2023!E19*(1+2.5/100)^(2030-2023)</f>
+        <v>10569.793721617745</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -3860,8 +4907,8 @@
         <v>10</v>
       </c>
       <c r="E20">
-        <f>Load_bus_2022!E20*(1+2.5/100)^(2040-2022)</f>
-        <v>18095.00447695909</v>
+        <f>Load_bus_2023!E20*(1+2.5/100)^(2030-2023)</f>
+        <v>13791.013245483235</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -3881,8 +4928,8 @@
         <v>10</v>
       </c>
       <c r="E21">
-        <f>Load_bus_2022!E21*(1+2.5/100)^(2040-2022)</f>
-        <v>14631.392379612369</v>
+        <f>Load_bus_2023!E21*(1+2.5/100)^(2030-2023)</f>
+        <v>11151.239358024552</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -3902,8 +4949,8 @@
         <v>10</v>
       </c>
       <c r="E22">
-        <f>Load_bus_2022!E22*(1+2.5/100)^(2040-2022)</f>
-        <v>11583.273364662664</v>
+        <f>Load_bus_2023!E22*(1+2.5/100)^(2030-2023)</f>
+        <v>8828.1313553430809</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -3923,8 +4970,8 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <f>Load_bus_2022!E23*(1+2.5/100)^(2040-2022)</f>
-        <v>11116.545493388992</v>
+        <f>Load_bus_2023!E23*(1+2.5/100)^(2030-2023)</f>
+        <v>8472.4171435578683</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -3944,8 +4991,8 @@
         <v>10</v>
       </c>
       <c r="E24">
-        <f>Load_bus_2022!E24*(1+2.5/100)^(2040-2022)</f>
-        <v>14309.244871470091</v>
+        <f>Load_bus_2023!E24*(1+2.5/100)^(2030-2023)</f>
+        <v>10905.716315604383</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -3965,8 +5012,8 @@
         <v>10</v>
       </c>
       <c r="E25">
-        <f>Load_bus_2022!E25*(1+2.5/100)^(2040-2022)</f>
-        <v>13061.361931433117</v>
+        <f>Load_bus_2023!E25*(1+2.5/100)^(2030-2023)</f>
+        <v>9954.6488440944449</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -3986,8 +5033,8 @@
         <v>12</v>
       </c>
       <c r="E26">
-        <f>Load_bus_2022!E26*(1+2.5/100)^(2040-2022)</f>
-        <v>20811.150133844963</v>
+        <f>Load_bus_2023!E26*(1+2.5/100)^(2030-2023)</f>
+        <v>15861.109485496427</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -4007,8 +5054,8 @@
         <v>12</v>
       </c>
       <c r="E27">
-        <f>Load_bus_2022!E27*(1+2.5/100)^(2040-2022)</f>
-        <v>21739.692951431534</v>
+        <f>Load_bus_2023!E27*(1+2.5/100)^(2030-2023)</f>
+        <v>16568.793548942798</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -4028,8 +5075,8 @@
         <v>12</v>
       </c>
       <c r="E28">
-        <f>Load_bus_2022!E28*(1+2.5/100)^(2040-2022)</f>
-        <v>23558.878879764397</v>
+        <f>Load_bus_2023!E28*(1+2.5/100)^(2030-2023)</f>
+        <v>17955.2766120214</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -4049,8 +5096,8 @@
         <v>12</v>
       </c>
       <c r="E29">
-        <f>Load_bus_2022!E29*(1+2.5/100)^(2040-2022)</f>
-        <v>22932.831870477006</v>
+        <f>Load_bus_2023!E29*(1+2.5/100)^(2030-2023)</f>
+        <v>17478.13815049898</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -4070,8 +5117,8 @@
         <v>12</v>
       </c>
       <c r="E30">
-        <f>Load_bus_2022!E30*(1+2.5/100)^(2040-2022)</f>
-        <v>19064.254387077795</v>
+        <f>Load_bus_2023!E30*(1+2.5/100)^(2030-2023)</f>
+        <v>14529.722007100345</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -4091,8 +5138,8 @@
         <v>12</v>
       </c>
       <c r="E31">
-        <f>Load_bus_2022!E31*(1+2.5/100)^(2040-2022)</f>
-        <v>20295.293012963539</v>
+        <f>Load_bus_2023!E31*(1+2.5/100)^(2030-2023)</f>
+        <v>15467.951672470665</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -4112,8 +5159,8 @@
         <v>12</v>
       </c>
       <c r="E32">
-        <f>Load_bus_2022!E32*(1+2.5/100)^(2040-2022)</f>
-        <v>21891.291778792605</v>
+        <f>Load_bus_2023!E32*(1+2.5/100)^(2030-2023)</f>
+        <v>16684.333804199348</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -4133,8 +5180,8 @@
         <v>12</v>
       </c>
       <c r="E33">
-        <f>Load_bus_2022!E33*(1+2.5/100)^(2040-2022)</f>
-        <v>20744.47472366301</v>
+        <f>Load_bus_2023!E33*(1+2.5/100)^(2030-2023)</f>
+        <v>15810.293169527111</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -4154,8 +5201,8 @@
         <v>10</v>
       </c>
       <c r="E34">
-        <f>Load_bus_2022!E34*(1+2.5/100)^(2040-2022)</f>
-        <v>10617.376720787026</v>
+        <f>Load_bus_2023!E34*(1+2.5/100)^(2030-2023)</f>
+        <v>8091.9782680963563</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -4175,8 +5222,8 @@
         <v>10</v>
       </c>
       <c r="E35">
-        <f>Load_bus_2022!E35*(1+2.5/100)^(2040-2022)</f>
-        <v>10786.599691658181</v>
+        <f>Load_bus_2023!E35*(1+2.5/100)^(2030-2023)</f>
+        <v>8220.9506723693576</v>
       </c>
       <c r="F35">
         <v>3</v>
@@ -4196,8 +5243,8 @@
         <v>10</v>
       </c>
       <c r="E36">
-        <f>Load_bus_2022!E36*(1+2.5/100)^(2040-2022)</f>
-        <v>14073.892370968179</v>
+        <f>Load_bus_2023!E36*(1+2.5/100)^(2030-2023)</f>
+        <v>10726.343635375848</v>
       </c>
       <c r="F36">
         <v>3</v>
@@ -4217,8 +5264,8 @@
         <v>10</v>
       </c>
       <c r="E37">
-        <f>Load_bus_2022!E37*(1+2.5/100)^(2040-2022)</f>
-        <v>11379.971850809621</v>
+        <f>Load_bus_2023!E37*(1+2.5/100)^(2030-2023)</f>
+        <v>8673.186167352429</v>
       </c>
       <c r="F37">
         <v>3</v>
@@ -4238,8 +5285,8 @@
         <v>10</v>
       </c>
       <c r="E38">
-        <f>Load_bus_2022!E38*(1+2.5/100)^(2040-2022)</f>
-        <v>9009.2126169598487</v>
+        <f>Load_bus_2023!E38*(1+2.5/100)^(2030-2023)</f>
+        <v>6866.3243874890622</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -4259,8 +5306,8 @@
         <v>10</v>
       </c>
       <c r="E39">
-        <f>Load_bus_2022!E39*(1+2.5/100)^(2040-2022)</f>
-        <v>8646.2020504136599</v>
+        <f>Load_bus_2023!E39*(1+2.5/100)^(2030-2023)</f>
+        <v>6589.6577783227858</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -4280,8 +5327,8 @@
         <v>10</v>
       </c>
       <c r="E40">
-        <f>Load_bus_2022!E40*(1+2.5/100)^(2040-2022)</f>
-        <v>11129.412677810071</v>
+        <f>Load_bus_2023!E40*(1+2.5/100)^(2030-2023)</f>
+        <v>8482.2238010256297</v>
       </c>
       <c r="F40">
         <v>3</v>
@@ -4301,8 +5348,8 @@
         <v>10</v>
       </c>
       <c r="E41">
-        <f>Load_bus_2022!E41*(1+2.5/100)^(2040-2022)</f>
-        <v>10158.837057781313</v>
+        <f>Load_bus_2023!E41*(1+2.5/100)^(2030-2023)</f>
+        <v>7742.5046565179018</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -4322,8 +5369,8 @@
         <v>12</v>
       </c>
       <c r="E42">
-        <f>Load_bus_2022!E42*(1+2.5/100)^(2040-2022)</f>
-        <v>16186.450104101637</v>
+        <f>Load_bus_2023!E42*(1+2.5/100)^(2030-2023)</f>
+        <v>12336.418488719442</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -4343,8 +5390,8 @@
         <v>12</v>
       </c>
       <c r="E43">
-        <f>Load_bus_2022!E43*(1+2.5/100)^(2040-2022)</f>
-        <v>16908.650073335637</v>
+        <f>Load_bus_2023!E43*(1+2.5/100)^(2030-2023)</f>
+        <v>12886.839426955508</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -4364,8 +5411,8 @@
         <v>12</v>
       </c>
       <c r="E44">
-        <f>Load_bus_2022!E44*(1+2.5/100)^(2040-2022)</f>
-        <v>18323.572462038974</v>
+        <f>Load_bus_2023!E44*(1+2.5/100)^(2030-2023)</f>
+        <v>13965.21514268331</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -4385,8 +5432,8 @@
         <v>12</v>
       </c>
       <c r="E45">
-        <f>Load_bus_2022!E45*(1+2.5/100)^(2040-2022)</f>
-        <v>17836.647010371005</v>
+        <f>Load_bus_2023!E45*(1+2.5/100)^(2030-2023)</f>
+        <v>13594.107450388095</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -4406,8 +5453,8 @@
         <v>12</v>
       </c>
       <c r="E46">
-        <f>Load_bus_2022!E46*(1+2.5/100)^(2040-2022)</f>
-        <v>14827.753412171618</v>
+        <f>Load_bus_2023!E46*(1+2.5/100)^(2030-2023)</f>
+        <v>11300.894894411378</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -4427,8 +5474,8 @@
         <v>12</v>
       </c>
       <c r="E47">
-        <f>Load_bus_2022!E47*(1+2.5/100)^(2040-2022)</f>
-        <v>15785.22789897164</v>
+        <f>Load_bus_2023!E47*(1+2.5/100)^(2030-2023)</f>
+        <v>12030.629078588294</v>
       </c>
       <c r="F47">
         <v>3</v>
@@ -4448,8 +5495,8 @@
         <v>12</v>
       </c>
       <c r="E48">
-        <f>Load_bus_2022!E48*(1+2.5/100)^(2040-2022)</f>
-        <v>17026.560272394247</v>
+        <f>Load_bus_2023!E48*(1+2.5/100)^(2030-2023)</f>
+        <v>12976.704069932824</v>
       </c>
       <c r="F48">
         <v>3</v>
@@ -4469,11 +5516,1706 @@
         <v>12</v>
       </c>
       <c r="E49">
-        <f>Load_bus_2022!E49*(1+2.5/100)^(2040-2022)</f>
-        <v>16134.591451737897</v>
+        <f>Load_bus_2023!E49*(1+2.5/100)^(2030-2023)</f>
+        <v>12296.894687409973</v>
       </c>
       <c r="F49">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>1056</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <f>Load_all_2023!E2*(1+0.9/100)^(2040-2023)</f>
+        <v>22650.063905942468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1040</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <f>Load_all_2023!E3*(1+0.9/100)^(2040-2023)</f>
+        <v>23011.06749518885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1056</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <f>Load_all_2023!E4*(1+0.9/100)^(2040-2023)</f>
+        <v>30023.853348226668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1024</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <f>Load_all_2023!E5*(1+0.9/100)^(2040-2023)</f>
+        <v>24276.909112965688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1176</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <f>Load_all_2023!E6*(1+0.9/100)^(2040-2023)</f>
+        <v>19219.365280394573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1144</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <f>Load_all_2023!E7*(1+0.9/100)^(2040-2023)</f>
+        <v>18444.954355075719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1152</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f>Load_all_2023!E8*(1+0.9/100)^(2040-2023)</f>
+        <v>23742.390895339588</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1112</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <f>Load_all_2023!E9*(1+0.9/100)^(2040-2023)</f>
+        <v>21671.860631855492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1056</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <f>Load_all_2023!E10*(1+0.9/100)^(2040-2023)</f>
+        <v>34530.575575270232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1040</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <f>Load_all_2023!E11*(1+0.9/100)^(2040-2023)</f>
+        <v>36071.24573195722</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>1056</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <f>Load_all_2023!E12*(1+0.9/100)^(2040-2023)</f>
+        <v>39089.701549139885</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>1024</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <f>Load_all_2023!E13*(1+0.9/100)^(2040-2023)</f>
+        <v>38050.942834276095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>1176</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <f>Load_all_2023!E14*(1+0.9/100)^(2040-2023)</f>
+        <v>31632.066111933946</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>1144</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <f>Load_all_2023!E15*(1+0.9/100)^(2040-2023)</f>
+        <v>33674.647710444129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>1152</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <f>Load_all_2023!E16*(1+0.9/100)^(2040-2023)</f>
+        <v>36322.783716722442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>1112</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <f>Load_all_2023!E17*(1+0.9/100)^(2040-2023)</f>
+        <v>34419.945443081822</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>1056</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <f>Load_bus_2023!E2*(1+0.9/100)^(2040-2023)</f>
+        <v>4530.0127811884931</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1040</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <f>Load_bus_2023!E3*(1+0.9/100)^(2040-2023)</f>
+        <v>4602.2134990377699</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1056</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <f>Load_bus_2023!E4*(1+0.9/100)^(2040-2023)</f>
+        <v>6004.7706696453342</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1024</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <f>Load_bus_2023!E5*(1+0.9/100)^(2040-2023)</f>
+        <v>4855.3818225931382</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1176</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <f>Load_bus_2023!E6*(1+0.9/100)^(2040-2023)</f>
+        <v>3843.8730560789149</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1144</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <f>Load_bus_2023!E7*(1+0.9/100)^(2040-2023)</f>
+        <v>3688.990871015144</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1152</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f>Load_bus_2023!E8*(1+0.9/100)^(2040-2023)</f>
+        <v>4748.4781790679181</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1112</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <f>Load_bus_2023!E9*(1+0.9/100)^(2040-2023)</f>
+        <v>4334.3721263710986</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1056</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <f>Load_bus_2023!E10*(1+0.9/100)^(2040-2023)</f>
+        <v>6906.1151150540472</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1040</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <f>Load_bus_2023!E11*(1+0.9/100)^(2040-2023)</f>
+        <v>7214.2491463914439</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>1056</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <f>Load_bus_2023!E12*(1+0.9/100)^(2040-2023)</f>
+        <v>7817.9403098279781</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>1024</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <f>Load_bus_2023!E13*(1+0.9/100)^(2040-2023)</f>
+        <v>7610.1885668552195</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>1176</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <f>Load_bus_2023!E14*(1+0.9/100)^(2040-2023)</f>
+        <v>6326.4132223867891</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>1144</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <f>Load_bus_2023!E15*(1+0.9/100)^(2040-2023)</f>
+        <v>6734.9295420888266</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>1152</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <f>Load_bus_2023!E16*(1+0.9/100)^(2040-2023)</f>
+        <v>7264.5567433444894</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>1112</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <f>Load_bus_2023!E17*(1+0.9/100)^(2040-2023)</f>
+        <v>6883.9890886163657</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>1056</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <f>Load_bus_2023!E18*(1+0.9/100)^(2040-2023)</f>
+        <v>10192.52875767411</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>1040</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <f>Load_bus_2023!E19*(1+0.9/100)^(2040-2023)</f>
+        <v>10354.980372834983</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>1056</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <f>Load_bus_2023!E20*(1+0.9/100)^(2040-2023)</f>
+        <v>13510.734006702</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>1024</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <f>Load_bus_2023!E21*(1+0.9/100)^(2040-2023)</f>
+        <v>10924.609100834559</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>1176</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <f>Load_bus_2023!E22*(1+0.9/100)^(2040-2023)</f>
+        <v>8648.7143761775587</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>1144</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <f>Load_bus_2023!E23*(1+0.9/100)^(2040-2023)</f>
+        <v>8300.2294597840737</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>1152</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <f>Load_bus_2023!E24*(1+0.9/100)^(2040-2023)</f>
+        <v>10684.075902902816</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>1112</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <f>Load_bus_2023!E25*(1+0.9/100)^(2040-2023)</f>
+        <v>9752.3372843349716</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>1056</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <f>Load_bus_2023!E26*(1+0.9/100)^(2040-2023)</f>
+        <v>15538.759008871604</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>1040</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <f>Load_bus_2023!E27*(1+0.9/100)^(2040-2023)</f>
+        <v>16232.060579380748</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>1056</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <f>Load_bus_2023!E28*(1+0.9/100)^(2040-2023)</f>
+        <v>17590.365697112949</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>1024</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <f>Load_bus_2023!E29*(1+0.9/100)^(2040-2023)</f>
+        <v>17122.924275424244</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>1176</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <f>Load_bus_2023!E30*(1+0.9/100)^(2040-2023)</f>
+        <v>14234.429750370275</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>1144</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <f>Load_bus_2023!E31*(1+0.9/100)^(2040-2023)</f>
+        <v>15153.591469699857</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>1152</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <f>Load_bus_2023!E32*(1+0.9/100)^(2040-2023)</f>
+        <v>16345.252672525099</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>1112</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <f>Load_bus_2023!E33*(1+0.9/100)^(2040-2023)</f>
+        <v>15488.97544938682</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>1056</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <f>Load_bus_2023!E34*(1+0.9/100)^(2040-2023)</f>
+        <v>7927.5223670798632</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>1040</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <f>Load_bus_2023!E35*(1+0.9/100)^(2040-2023)</f>
+        <v>8053.873623316098</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>1056</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <f>Load_bus_2023!E36*(1+0.9/100)^(2040-2023)</f>
+        <v>10508.348671879332</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>1024</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <f>Load_bus_2023!E37*(1+0.9/100)^(2040-2023)</f>
+        <v>8496.9181895379897</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>1176</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <f>Load_bus_2023!E38*(1+0.9/100)^(2040-2023)</f>
+        <v>6726.7778481381001</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>1144</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <f>Load_bus_2023!E39*(1+0.9/100)^(2040-2023)</f>
+        <v>6455.7340242765013</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>1152</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <f>Load_bus_2023!E40*(1+0.9/100)^(2040-2023)</f>
+        <v>8309.8368133688546</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>1112</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <f>Load_bus_2023!E41*(1+0.9/100)^(2040-2023)</f>
+        <v>7585.1512211494219</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>1056</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <f>Load_bus_2023!E42*(1+0.9/100)^(2040-2023)</f>
+        <v>12085.701451344579</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>1040</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <f>Load_bus_2023!E43*(1+0.9/100)^(2040-2023)</f>
+        <v>12624.936006185026</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>1056</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <f>Load_bus_2023!E44*(1+0.9/100)^(2040-2023)</f>
+        <v>13681.395542198959</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>1024</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <f>Load_bus_2023!E45*(1+0.9/100)^(2040-2023)</f>
+        <v>13317.829991996634</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>1176</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <f>Load_bus_2023!E46*(1+0.9/100)^(2040-2023)</f>
+        <v>11071.22313917688</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>1144</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <f>Load_bus_2023!E47*(1+0.9/100)^(2040-2023)</f>
+        <v>11786.126698655444</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>1152</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48">
+        <f>Load_bus_2023!E48*(1+0.9/100)^(2040-2023)</f>
+        <v>12712.974300852853</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>1112</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <f>Load_bus_2023!E49*(1+0.9/100)^(2040-2023)</f>
+        <v>12046.980905078637</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>1056</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <f>Load_all_2023!E2*(1+2.5/100)^(2040-2023)</f>
+        <v>29595.475179894147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1040</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <f>Load_all_2023!E3*(1+2.5/100)^(2040-2023)</f>
+        <v>30067.17684085904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1056</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <f>Load_all_2023!E4*(1+2.5/100)^(2040-2023)</f>
+        <v>39230.362009667399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1024</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <f>Load_all_2023!E5*(1+2.5/100)^(2040-2023)</f>
+        <v>31721.175890758524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1176</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <f>Load_all_2023!E6*(1+2.5/100)^(2040-2023)</f>
+        <v>25112.787782466479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>1144</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <f>Load_all_2023!E7*(1+2.5/100)^(2040-2023)</f>
+        <v>24100.911638783724</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1152</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f>Load_all_2023!E8*(1+2.5/100)^(2040-2023)</f>
+        <v>31022.753108878245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1112</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <f>Load_all_2023!E9*(1+2.5/100)^(2040-2023)</f>
+        <v>28317.315840505402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1056</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <f>Load_all_2023!E10*(1+2.5/100)^(2040-2023)</f>
+        <v>45119.024680422684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1040</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <f>Load_all_2023!E11*(1+2.5/100)^(2040-2023)</f>
+        <v>47132.125639959959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>1056</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <f>Load_all_2023!E12*(1+2.5/100)^(2040-2023)</f>
+        <v>51076.16017293094</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>1024</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <f>Load_all_2023!E13*(1+2.5/100)^(2040-2023)</f>
+        <v>49718.876683960989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>1176</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <f>Load_all_2023!E14*(1+2.5/100)^(2040-2023)</f>
+        <v>41331.716828352939</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>1144</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <f>Load_all_2023!E15*(1+2.5/100)^(2040-2023)</f>
+        <v>44000.635258457536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>1152</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <f>Load_all_2023!E16*(1+2.5/100)^(2040-2023)</f>
+        <v>47460.795184374205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>1112</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <f>Load_all_2023!E17*(1+2.5/100)^(2040-2023)</f>
+        <v>44974.470945610861</v>
       </c>
     </row>
   </sheetData>
